--- a/statistical.xlsx
+++ b/statistical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanghongen/R_project/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A337C-109F-C642-81B6-3B4D94053C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B1A3A-D88E-AB44-A7FF-1A2988774C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{499A28C0-2A52-4A88-AC3C-1529012E4FC8}"/>
   </bookViews>
@@ -478,9 +478,6 @@
     <t>Immunoscore_CIBERSORTx</t>
   </si>
   <si>
-    <t>Ecotype</t>
-  </si>
-  <si>
     <t>IFN_gamma_ssGSEA</t>
   </si>
   <si>
@@ -722,6 +719,10 @@
   </si>
   <si>
     <t>anti-PD-1;anti-PD-L1;anti-CTLA-4</t>
+  </si>
+  <si>
+    <t>EcoTyper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1141,13 +1142,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1180,7 +1181,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1219,7 +1220,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1258,13 +1259,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1297,13 +1298,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1336,13 +1337,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1375,7 +1376,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1453,7 +1454,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1492,13 +1493,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1531,13 +1532,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -1570,13 +1571,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1609,13 +1610,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1648,7 +1649,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1687,7 +1688,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1726,7 +1727,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1765,13 +1766,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -1804,13 +1805,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1843,13 +1844,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -1882,13 +1883,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -1921,7 +1922,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1960,7 +1961,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1999,7 +2000,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2038,13 +2039,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2077,7 +2078,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -2116,13 +2117,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -2155,7 +2156,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2194,13 +2195,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -2246,7 +2247,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2283,7 +2284,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2306,7 +2307,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2513,7 +2514,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2559,7 +2560,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2582,7 +2583,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2605,7 +2606,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2628,7 +2629,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2646,12 +2647,12 @@
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2674,7 +2675,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2692,7 +2693,7 @@
         <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2798,7 +2799,7 @@
         <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24">
         <v>32895571</v>
@@ -2830,7 +2831,7 @@
         <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2844,7 +2845,7 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>27855702</v>
@@ -2867,7 +2868,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27">
         <v>27855702</v>
@@ -2890,7 +2891,7 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28">
         <v>27855702</v>
@@ -2968,7 +2969,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3065,7 +3066,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3088,7 +3089,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3157,7 +3158,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3175,18 +3176,18 @@
         <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -3203,13 +3204,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -3226,13 +3227,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
@@ -3249,13 +3250,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -3272,13 +3273,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
         <v>97</v>
@@ -3295,13 +3296,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -3318,13 +3319,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
@@ -3336,18 +3337,18 @@
         <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -3364,16 +3365,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49">
         <v>32895571</v>
